--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail11 Features.xlsx
@@ -3003,7 +3003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,29 +3014,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3057,115 +3055,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3182,72 +3170,66 @@
         <v>1.417981612844829e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2951633354337572</v>
+        <v>5.035198793348873e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.218093856534316</v>
+        <v>3.004795038783188e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.035198793348873e-07</v>
+        <v>-0.001649503921733522</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.004795038783188e-06</v>
+        <v>0.2062759699756804</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.001649503921733522</v>
+        <v>0.04249460091293868</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2062759699756804</v>
+        <v>1.737834880295991</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04249460091293868</v>
+        <v>1.402255056211801</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.666984881354705</v>
+        <v>5.091762015324507</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.402255056211801</v>
+        <v>5.157819886200047e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.091762015324507</v>
+        <v>38855966.38053782</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.157819886200047e-15</v>
+        <v>2.971220844534661e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>38855966.38053782</v>
+        <v>7.78720489100338</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.971220844534661e-06</v>
+        <v>0.0001546113219460338</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>7.78720489100338</v>
+        <v>8.708562391870981</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001546113219460338</v>
+        <v>1.538599138709739</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.708562391870981</v>
+        <v>0.01172557715679124</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.538599138709739</v>
+        <v>3.01863881466241</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01172557715679124</v>
+        <v>0.9524086538895939</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.01863881466241</v>
+        <v>1.785814813457894</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9524086538895939</v>
+        <v>25</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.785814813457894</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1788401167698932</v>
       </c>
     </row>
@@ -3262,72 +3244,66 @@
         <v>1.435151055577074e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2635738305279682</v>
+        <v>5.12217661904668e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.20370249173028</v>
+        <v>3.003485642111837e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.12217661904668e-07</v>
+        <v>-0.01562535668662558</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.003485642111837e-06</v>
+        <v>0.1763870415665902</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01562535668662558</v>
+        <v>0.03132965836289987</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1763870415665902</v>
+        <v>1.800006000380246</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03132965836289987</v>
+        <v>1.559939766450038</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.746558074485644</v>
+        <v>4.801132247910465</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.559939766450038</v>
+        <v>1.820068979097841e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.801132247910465</v>
+        <v>103846645.8903387</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.820068979097841e-15</v>
+        <v>1.134226096744032e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>103846645.8903387</v>
+        <v>19.6278529493386</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.134226096744032e-06</v>
+        <v>0.0001593741721735018</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>19.6278529493386</v>
+        <v>7.904884237710479</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001593741721735018</v>
+        <v>1.766182301048189</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.904884237710479</v>
+        <v>0.009958844944543655</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.766182301048189</v>
+        <v>3.050016069599135</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009958844944543655</v>
+        <v>0.9547939209480796</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.050016069599135</v>
+        <v>1.686319340071163</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9547939209480796</v>
+        <v>25</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.686319340071163</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1837886737457623</v>
       </c>
     </row>
@@ -3342,72 +3318,66 @@
         <v>1.465414776602812e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2372515125132145</v>
+        <v>5.16644461780787e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.212387776849216</v>
+        <v>3.000505988559608e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.16644461780787e-07</v>
+        <v>-0.02470462083403804</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.000505988559608e-06</v>
+        <v>0.1571051370167077</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02470462083403804</v>
+        <v>0.02527938618470687</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1571051370167077</v>
+        <v>1.845426784674122</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02527938618470687</v>
+        <v>1.801568996186646</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.802480910799144</v>
+        <v>3.924065952201442</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.801568996186646</v>
+        <v>1.226181996555828e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.924065952201442</v>
+        <v>150671611.6830762</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.226181996555828e-15</v>
+        <v>7.886028472309357e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>150671611.6830762</v>
+        <v>27.83670345325926</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.886028472309357e-07</v>
+        <v>0.0001694620147834986</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>27.83670345325926</v>
+        <v>8.759285404304032</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001694620147834986</v>
+        <v>1.556940278171942</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.759285404304032</v>
+        <v>0.01300198677578704</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.556940278171942</v>
+        <v>2.962853441736141</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01300198677578704</v>
+        <v>0.9564159073336942</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.962853441736141</v>
+        <v>1.665079564370884</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9564159073336942</v>
+        <v>25</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.665079564370884</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1868737971504773</v>
       </c>
     </row>
@@ -3422,72 +3392,66 @@
         <v>1.496677328519072e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2374483715770489</v>
+        <v>5.169567417715538e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.228211433341325</v>
+        <v>2.996402400769976e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.169567417715538e-07</v>
+        <v>-0.03002980315143535</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.996402400769976e-06</v>
+        <v>0.1455128909082645</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03002980315143535</v>
+        <v>0.02207078790294911</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1455128909082645</v>
+        <v>1.851625972843503</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02207078790294911</v>
+        <v>1.928211610665284</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.816046350714661</v>
+        <v>4.232658343143041</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.928211610665284</v>
+        <v>1.270359137428063e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.232658343143041</v>
+        <v>143237879.9499423</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.270359137428063e-15</v>
+        <v>8.28550701405319e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>143237879.9499423</v>
+        <v>26.06407307576831</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.28550701405319e-07</v>
+        <v>0.000152843662921308</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>26.06407307576831</v>
+        <v>10.20543741578335</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000152843662921308</v>
+        <v>1.184041197253269</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.20543741578335</v>
+        <v>0.01591881312995187</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.184041197253269</v>
+        <v>2.890520804653801</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01591881312995187</v>
+        <v>0.9550994489433036</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.890520804653801</v>
+        <v>1.672445819426791</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9550994489433036</v>
+        <v>21</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.672445819426791</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2041478655435015</v>
       </c>
     </row>
@@ -3502,72 +3466,66 @@
         <v>1.523421390334818e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2603454452583903</v>
+        <v>5.169567417715538e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.236715526337754</v>
+        <v>2.991664943755968e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.169567417715538e-07</v>
+        <v>-0.03221757713872183</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.991664943755968e-06</v>
+        <v>0.139738038470987</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03221757713872183</v>
+        <v>0.02056261521059231</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.139738038470987</v>
+        <v>1.845119501529241</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02056261521059231</v>
+        <v>1.841184142958968</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.808461091690516</v>
+        <v>4.162317053642862</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.841184142958968</v>
+        <v>1.438075337049998e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.162317053642862</v>
+        <v>123626088.1502458</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.438075337049998e-15</v>
+        <v>9.585314927023211e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>123626088.1502458</v>
+        <v>21.97869451437446</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.585314927023211e-07</v>
+        <v>0.0001391100031200769</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>21.97869451437446</v>
+        <v>10.27514339102782</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001391100031200769</v>
+        <v>1.09743889833255</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.27514339102782</v>
+        <v>0.01468703543946034</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.09743889833255</v>
+        <v>2.798954553012788</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01468703543946034</v>
+        <v>0.9549105626189208</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.798954553012788</v>
+        <v>1.630266058163369</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9549105626189208</v>
+        <v>12</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.630266058163369</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2157172771549822</v>
       </c>
     </row>
@@ -3582,72 +3540,66 @@
         <v>1.543626266462207e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2998186687424323</v>
+        <v>5.169567417715538e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.234100975817684</v>
+        <v>2.986664749396558e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.169567417715538e-07</v>
+        <v>-0.03289044690668831</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.986664749396558e-06</v>
+        <v>0.1367943952632041</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03289044690668831</v>
+        <v>0.01979348057687222</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1367943952632041</v>
+        <v>1.764145905307814</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01979348057687222</v>
+        <v>1.710698538676234</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.706847503324687</v>
+        <v>4.288832776833837</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.710698538676234</v>
+        <v>1.786919898382596e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.288832776833837</v>
+        <v>102944206.7403229</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.786919898382596e-15</v>
+        <v>1.123379182691817e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>102944206.7403229</v>
+        <v>18.93690095872416</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.123379182691817e-06</v>
+        <v>0.0001355314191621825</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>18.93690095872416</v>
+        <v>8.653069352411846</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001355314191621825</v>
+        <v>1.249166985510558</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.653069352411846</v>
+        <v>0.01014799757790099</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.249166985510558</v>
+        <v>3.020661519789614</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01014799757790099</v>
+        <v>0.9509817049420244</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.020661519789614</v>
+        <v>1.711502606384402</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9509817049420244</v>
+        <v>13</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.711502606384402</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2022559173051213</v>
       </c>
     </row>
@@ -3662,72 +3614,66 @@
         <v>1.558111671333084e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3495125084036044</v>
+        <v>5.169567417715538e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.216461569969678</v>
+        <v>2.981477738522253e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.169567417715538e-07</v>
+        <v>-0.03412102207288401</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.981477738522253e-06</v>
+        <v>0.134374766520755</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03412102207288401</v>
+        <v>0.01922010982659043</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.134374766520755</v>
+        <v>1.749429620557658</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01922010982659043</v>
+        <v>1.659287371843929</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.686651961756108</v>
+        <v>3.900917164709926</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.659287371843929</v>
+        <v>2.541194656549841e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.900917164709926</v>
+        <v>76866418.49057116</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.541194656549841e-15</v>
+        <v>1.505508565484721e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>76866418.49057116</v>
+        <v>15.01451214464336</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.505508565484721e-06</v>
+        <v>0.0001575108393347234</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>15.01451214464336</v>
+        <v>7.936523844648022</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001575108393347234</v>
+        <v>1.710582235946657</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.936523844648022</v>
+        <v>0.009921357443492661</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.710582235946657</v>
+        <v>3.053031681271406</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009921357443492661</v>
+        <v>0.949651861089826</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.053031681271406</v>
+        <v>1.758068964487872</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.949651861089826</v>
+        <v>13</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.758068964487872</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1817709376778801</v>
       </c>
     </row>
@@ -3742,72 +3688,66 @@
         <v>1.568243712527585e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4049197005044912</v>
+        <v>5.169567417715538e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.180622173636647</v>
+        <v>2.975991651345595e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.169567417715538e-07</v>
+        <v>-0.03610629196849467</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.975991651345595e-06</v>
+        <v>0.1320508856417418</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03610629196849467</v>
+        <v>0.01874023019176892</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1320508856417418</v>
+        <v>1.723564876456035</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01874023019176892</v>
+        <v>1.644484127407864</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.653569123479969</v>
+        <v>3.874633278740713</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.644484127407864</v>
+        <v>2.575788390614822e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.874633278740713</v>
+        <v>76768156.11202735</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.575788390614822e-15</v>
+        <v>1.500666089720493e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>76768156.11202735</v>
+        <v>15.18002197823109</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.500666089720493e-06</v>
+        <v>0.0001556538844409819</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>15.18002197823109</v>
+        <v>8.681600689336557</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001556538844409819</v>
+        <v>1.477527437094353</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.681600689336557</v>
+        <v>0.0117316629269096</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.477527437094353</v>
+        <v>3.022995988225421</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0117316629269096</v>
+        <v>0.951036004359598</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.022995988225421</v>
+        <v>1.7791129353967</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.951036004359598</v>
+        <v>18</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.7791129353967</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1841844821657885</v>
       </c>
     </row>
@@ -3822,72 +3762,66 @@
         <v>1.573571375598092e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.4647190718194972</v>
+        <v>5.169567417715538e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.12388989286961</v>
+        <v>2.970137113198508e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.169567417715538e-07</v>
+        <v>-0.03843705320755946</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.970137113198508e-06</v>
+        <v>0.1296769800912814</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03843705320755946</v>
+        <v>0.01829208570742625</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1296769800912814</v>
+        <v>1.714841362912449</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01829208570742625</v>
+        <v>1.619054542676151</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.640966846666401</v>
+        <v>3.920166244938971</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.619054542676151</v>
+        <v>2.516300015766879e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.920166244938971</v>
+        <v>78589240.39807527</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.516300015766879e-15</v>
+        <v>1.46699286487175e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>78589240.39807527</v>
+        <v>15.54134504316009</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.46699286487175e-06</v>
+        <v>0.0001324787203471938</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>15.54134504316009</v>
+        <v>9.345423544155159</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001324787203471938</v>
+        <v>1.188035350709601</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.345423544155159</v>
+        <v>0.01157028621181726</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.188035350709601</v>
+        <v>2.979517804326013</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01157028621181726</v>
+        <v>0.9500031352473161</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.979517804326013</v>
+        <v>1.771933853377514</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9500031352473161</v>
+        <v>18</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.771933853377514</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2073460518292578</v>
       </c>
     </row>
@@ -3902,72 +3836,66 @@
         <v>1.571636359906709e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.528912982720996</v>
+        <v>5.169567417715538e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.042629135239322</v>
+        <v>2.963873207252055e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.169567417715538e-07</v>
+        <v>-0.04126410355626544</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.963873207252055e-06</v>
+        <v>0.126669543173771</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04126410355626544</v>
+        <v>0.01774466421519846</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.126669543173771</v>
+        <v>1.711005825729575</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01774466421519846</v>
+        <v>1.62088144234144</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.633342262869812</v>
+        <v>3.867159883176647</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.62088144234144</v>
+        <v>2.585753577774333e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.867159883176647</v>
+        <v>76183029.58705506</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.585753577774333e-15</v>
+        <v>1.512488054472808e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>76183029.58705506</v>
+        <v>15.00733623778321</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.512488054472808e-06</v>
+        <v>0.000125639242405799</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>15.00733623778321</v>
+        <v>8.734767806646822</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000125639242405799</v>
+        <v>1.184919637758631</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.734767806646822</v>
+        <v>0.009585792825896364</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.184919637758631</v>
+        <v>2.947713105732319</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009585792825896364</v>
+        <v>0.9484453060344558</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.947713105732319</v>
+        <v>1.790094765874363</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9484453060344558</v>
+        <v>18</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.790094765874363</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2155519999158242</v>
       </c>
     </row>
@@ -3982,72 +3910,66 @@
         <v>1.557437904514797e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.5953158148309645</v>
+        <v>5.169567417715538e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.9360560953490369</v>
+        <v>2.957127188200445e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.169567417715538e-07</v>
+        <v>-0.04504184578661072</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.957127188200445e-06</v>
+        <v>0.1218869311024343</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04504184578661072</v>
+        <v>0.01687818599426371</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1218869311024343</v>
+        <v>1.751525960665063</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01687818599426371</v>
+        <v>1.628364435863844</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.682261695287794</v>
+        <v>4.079124810276017</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.628364435863844</v>
+        <v>2.924038758109265e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.079124810276017</v>
+        <v>66501439.6323456</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.924038758109265e-15</v>
+        <v>1.753522091928554e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>66501439.6323456</v>
+        <v>12.93139027303209</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.753522091928554e-06</v>
+        <v>0.0001290861026755669</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>12.93139027303209</v>
+        <v>7.63446356525713</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001290861026755669</v>
+        <v>1.321710406483234</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.63446356525713</v>
+        <v>0.007523787874238597</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.321710406483234</v>
+        <v>3.077166400893457</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007523787874238597</v>
+        <v>0.9483951026766423</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.077166400893457</v>
+        <v>1.751455243374689</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9483951026766423</v>
+        <v>17</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.751455243374689</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1964751347639987</v>
       </c>
     </row>
@@ -4062,72 +3984,66 @@
         <v>1.523923410775414e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.6526049808719963</v>
+        <v>5.169567417715538e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.8283637746554682</v>
+        <v>2.94987074394513e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.169567417715538e-07</v>
+        <v>-0.04861749543607845</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.94987074394513e-06</v>
+        <v>0.118898640251264</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04861749543607845</v>
+        <v>0.01649565362132743</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.118898640251264</v>
+        <v>1.758703162674955</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01649565362132743</v>
+        <v>1.576672941454921</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.687173312073327</v>
+        <v>4.462611144653296</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.576672941454921</v>
+        <v>3.063352009445397e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.462611144653296</v>
+        <v>62566910.99424575</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.063352009445397e-15</v>
+        <v>1.865087087677484e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>62566910.99424575</v>
+        <v>11.99185399285621</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.865087087677484e-06</v>
+        <v>0.0001525539070562322</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>11.99185399285621</v>
+        <v>7.966034572688518</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001525539070562322</v>
+        <v>1.537083146483397</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.966034572688518</v>
+        <v>0.009680721107193034</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.537083146483397</v>
+        <v>3.002367481926862</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.009680721107193034</v>
+        <v>0.946093835394</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.002367481926862</v>
+        <v>1.731010385574895</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.946093835394</v>
+        <v>17</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.731010385574895</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1703081605545804</v>
       </c>
     </row>
@@ -4142,72 +4058,66 @@
         <v>1.471133081333483e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.6883832935757896</v>
+        <v>5.168710170119265e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.7636647567815777</v>
+        <v>2.942545922729601e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.168710170119265e-07</v>
+        <v>-0.04818946788088161</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.942545922729601e-06</v>
+        <v>0.1266811200835381</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04818946788088161</v>
+        <v>0.0183652443125986</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1266811200835381</v>
+        <v>1.756806285066742</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.0183652443125986</v>
+        <v>1.563012523338132</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.685708819004827</v>
+        <v>4.817896031357071</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.563012523338132</v>
+        <v>3.726650623215311e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.817896031357071</v>
+        <v>51380108.81778461</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.726650623215311e-15</v>
+        <v>2.269799168950018e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>51380108.81778461</v>
+        <v>9.838043049370841</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.269799168950018e-06</v>
+        <v>0.0001695932816900044</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>9.838043049370841</v>
+        <v>9.726447259350939</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001695932816900044</v>
+        <v>1.310319275463985</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.726447259350939</v>
+        <v>0.01604416488110758</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.310319275463985</v>
+        <v>2.835689115332396</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01604416488110758</v>
+        <v>0.9437965592892582</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.835689115332396</v>
+        <v>1.734452988342562</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9437965592892582</v>
+        <v>17</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.734452988342562</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1594224763458029</v>
       </c>
     </row>
@@ -4222,72 +4132,66 @@
         <v>1.408871348144873e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.7065670163958255</v>
+        <v>5.031249858213795e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7282154020121707</v>
+        <v>2.935947017916344e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.031249858213795e-07</v>
+        <v>-0.04250593734243402</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.935947017916344e-06</v>
+        <v>0.142740172416138</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04250593734243402</v>
+        <v>0.02216697157499316</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.142740172416138</v>
+        <v>1.735238840099338</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02216697157499316</v>
+        <v>1.480587187971625</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.654277001909677</v>
+        <v>4.988368621015917</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.480587187971625</v>
+        <v>5.503322813967781e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.988368621015917</v>
+        <v>34212110.5150208</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.503322813967781e-15</v>
+        <v>3.377244777544357e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>34212110.5150208</v>
+        <v>6.441466031506208</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.377244777544357e-06</v>
+        <v>0.0001575086198749361</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>6.441466031506208</v>
+        <v>11.10050056736123</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001575086198749361</v>
+        <v>1.108835364482817</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.10050056736123</v>
+        <v>0.01940838742382518</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.108835364482817</v>
+        <v>2.787659720284208</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01940838742382518</v>
+        <v>0.9414380380278343</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.787659720284208</v>
+        <v>1.782626173569017</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9414380380278343</v>
+        <v>6</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.782626173569017</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1704605932825162</v>
       </c>
     </row>
@@ -4302,72 +4206,66 @@
         <v>1.347547179930493e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.7062099015805308</v>
+        <v>4.777781316005865e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.6960212121988603</v>
+        <v>2.930763703815374e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.777781316005865e-07</v>
+        <v>-0.03171233122724015</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.930763703815374e-06</v>
+        <v>0.1680554011158749</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03171233122724015</v>
+        <v>0.02921485001923936</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1680554011158749</v>
+        <v>1.698521441201071</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02921485001923936</v>
+        <v>1.412679218153813</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.609266925713968</v>
+        <v>4.825407649691813</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.412679218153813</v>
+        <v>9.118224495389016e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.825407649691813</v>
+        <v>20525520.44784474</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>9.118224495389016e-15</v>
+        <v>5.591180522026557e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>20525520.44784474</v>
+        <v>3.841480530904894</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.591180522026557e-06</v>
+        <v>0.0001384376734712274</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3.841480530904894</v>
+        <v>10.67783791252138</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001384376734712274</v>
+        <v>1.056498321170156</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.67783791252138</v>
+        <v>0.0157841405789506</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.056498321170156</v>
+        <v>2.841233314795259</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0157841405789506</v>
+        <v>0.9394951825903801</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.841233314795259</v>
+        <v>1.795723279962845</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9394951825903801</v>
+        <v>6</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.795723279962845</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1835085962956997</v>
       </c>
     </row>
@@ -4382,72 +4280,66 @@
         <v>1.299932458726772e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6757980226466572</v>
+        <v>4.504096860237298e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.7100756959579964</v>
+        <v>2.92759133041196e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.504096860237298e-07</v>
+        <v>-0.01501721698933934</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.92759133041196e-06</v>
+        <v>0.2072374242259909</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.01501721698933934</v>
+        <v>0.04310339102762025</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2072374242259909</v>
+        <v>1.657752111031277</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04310339102762025</v>
+        <v>1.360581757733794</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.564121885267496</v>
+        <v>4.36179036929641</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.360581757733794</v>
+        <v>1.532149178948414e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.36179036929641</v>
+        <v>12264890.38773789</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.532149178948414e-14</v>
+        <v>9.265953369377149e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>12264890.38773789</v>
+        <v>2.304774261156473</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>9.265953369377149e-06</v>
+        <v>0.0001450023426415356</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>2.304774261156473</v>
+        <v>10.23184269343737</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001450023426415356</v>
+        <v>1.137573407806467</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.23184269343737</v>
+        <v>0.01518038296353034</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.137573407806467</v>
+        <v>2.87518340771433</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01518038296353034</v>
+        <v>0.93612332411997</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.87518340771433</v>
+        <v>1.800280821472325</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.93612332411997</v>
+        <v>6</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.800280821472325</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1710391983561734</v>
       </c>
     </row>
@@ -4462,72 +4354,66 @@
         <v>1.290036571967204e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.663135770876897</v>
+        <v>4.770266246922939e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.7266606832446802</v>
+        <v>2.927025831317335e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.770266246922939e-07</v>
+        <v>0.006784241411941449</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.927025831317335e-06</v>
+        <v>0.2529945255977675</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.006784241411941449</v>
+        <v>0.06396297975583658</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2529945255977675</v>
+        <v>1.512353735744463</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.06396297975583658</v>
+        <v>1.385726934000141</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.425267958065733</v>
+        <v>4.197221105477767</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.385726934000141</v>
+        <v>1.654653015975066e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.197221105477767</v>
+        <v>13340578.50251223</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.654653015975066e-14</v>
+        <v>7.33739586706577e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>13340578.50251223</v>
+        <v>2.944803094577292</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>7.33739586706577e-06</v>
+        <v>0.0001738856382327486</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>2.944803094577292</v>
+        <v>11.21912502367713</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001738856382327486</v>
+        <v>1.114318602657055</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.21912502367713</v>
+        <v>0.02188677076110486</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.114318602657055</v>
+        <v>2.660067292686309</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02188677076110486</v>
+        <v>0.9290565551944601</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.660067292686309</v>
+        <v>1.838233191403876</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9290565551944601</v>
+        <v>7</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.838233191403876</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.149869744459914</v>
       </c>
     </row>
@@ -4542,72 +4428,66 @@
         <v>1.346241207608481e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.8354450651908637</v>
+        <v>6.246957095526675e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.1231131750883665</v>
+        <v>2.929313237925628e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.246957095526675e-07</v>
+        <v>0.02744034163751284</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.929313237925628e-06</v>
+        <v>0.2787217883252375</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.02744034163751284</v>
+        <v>0.07836129477923137</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2787217883252375</v>
+        <v>1.487650168731546</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.07836129477923137</v>
+        <v>1.406108590270743</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.401529966036786</v>
+        <v>4.063765530409868</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.406108590270743</v>
+        <v>1.765116386711646e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.063765530409868</v>
+        <v>13029364.83108568</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.765116386711646e-14</v>
+        <v>7.486098548307617e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>13029364.83108568</v>
+        <v>2.996538323604115</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>7.486098548307617e-06</v>
+        <v>0.0001916226077873442</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>2.996538323604115</v>
+        <v>10.67686108935855</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001916226077873442</v>
+        <v>1.229220342286728</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.67686108935855</v>
+        <v>0.02184408868035011</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.229220342286728</v>
+        <v>2.642322015137608</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.02184408868035011</v>
+        <v>0.9290599775947573</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.642322015137608</v>
+        <v>1.915800571901808</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9290599775947573</v>
+        <v>7</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.915800571901808</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.137458643123217</v>
       </c>
     </row>
@@ -4622,72 +4502,66 @@
         <v>1.479697442714201e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.233666310200849</v>
+        <v>7.59458939725083e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1.480208174683176</v>
+        <v>2.934303997666211e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>7.59458939725083e-07</v>
+        <v>0.04195871868086623</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.934303997666211e-06</v>
+        <v>0.2771583820102139</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.04195871868086623</v>
+        <v>0.0785350228304756</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2771583820102139</v>
+        <v>1.424812472120607</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.0785350228304756</v>
+        <v>1.356291830055238</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.338694724257435</v>
+        <v>5.051886219977864</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.356291830055238</v>
+        <v>2.695538639830161e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.051886219977864</v>
+        <v>9293199.466698442</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.695538639830161e-14</v>
+        <v>1.018405265387229e-05</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>9293199.466698442</v>
+        <v>2.327963031548526</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.018405265387229e-05</v>
+        <v>0.0001913137913647304</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>2.327963031548526</v>
+        <v>9.141872156011276</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001913137913647304</v>
+        <v>1.595467972872223</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.141872156011276</v>
+        <v>0.01598882560979763</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.595467972872223</v>
+        <v>2.847470527029738</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01598882560979763</v>
+        <v>0.9226324607810417</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.847470527029738</v>
+        <v>1.920170749956551</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9226324607810417</v>
+        <v>7</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.920170749956551</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1348316243480422</v>
       </c>
     </row>
@@ -4702,72 +4576,66 @@
         <v>1.671793933888678e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.633566402036618</v>
+        <v>8.580822036424065e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>3.035440031064196</v>
+        <v>2.941474565554561e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>8.580822036424065e-07</v>
+        <v>0.04793415324876694</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.941474565554561e-06</v>
+        <v>0.2550652172011323</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.04793415324876694</v>
+        <v>0.06734126222765766</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2550652172011323</v>
+        <v>1.419388991161307</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.06734126222765766</v>
+        <v>1.364324225185547</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.333819751844467</v>
+        <v>4.169417349876852</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.364324225185547</v>
+        <v>4.07709506473329e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.169417349876852</v>
+        <v>6268495.717866988</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.07709506473329e-14</v>
+        <v>1.506530803180255e-05</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>6268495.717866988</v>
+        <v>1.602055307064617</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.506530803180255e-05</v>
+        <v>0.0001864503821045027</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>1.602055307064617</v>
+        <v>9.493967638637869</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001864503821045027</v>
+        <v>1.467818997465383</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.493967638637869</v>
+        <v>0.01680578378420757</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.467818997465383</v>
+        <v>2.833776607727507</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01680578378420757</v>
+        <v>0.9224530068503187</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.833776607727507</v>
+        <v>1.906917947953484</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9224530068503187</v>
+        <v>7</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.906917947953484</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1352568444610363</v>
       </c>
     </row>
@@ -4782,72 +4650,66 @@
         <v>1.890455099788074e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.874315525508291</v>
+        <v>9.258750537449514e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>3.726021776962957</v>
+        <v>2.950105547571774e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9.258750537449514e-07</v>
+        <v>0.04853711927048528</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.950105547571774e-06</v>
+        <v>0.2290597428049997</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.04853711927048528</v>
+        <v>0.05481807984121143</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2290597428049997</v>
+        <v>1.402232992945029</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.05481807984121143</v>
+        <v>1.343359485390308</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.320087946141858</v>
+        <v>3.985156346987541</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.343359485390308</v>
+        <v>4.462835176181286e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.985156346987541</v>
+        <v>5856446.181368758</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.462835176181286e-14</v>
+        <v>1.575626203316272e-05</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>5856446.181368758</v>
+        <v>1.530661507282738</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.575626203316272e-05</v>
+        <v>0.0001826915621024463</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>1.530661507282738</v>
+        <v>11.18267494193926</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001826915621024463</v>
+        <v>1.125842608341405</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.18267494193926</v>
+        <v>0.02284598520737624</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.125842608341405</v>
+        <v>2.643797633477603</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02284598520737624</v>
+        <v>0.9216171597169133</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.643797633477603</v>
+        <v>1.936346066567832</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9216171597169133</v>
+        <v>6</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.936346066567832</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1413439440711511</v>
       </c>
     </row>
@@ -4862,72 +4724,66 @@
         <v>2.115673025829387e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.973405545835912</v>
+        <v>9.726380301475137e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>3.740210245705977</v>
+        <v>2.959658018345067e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>9.726380301475137e-07</v>
+        <v>0.04641855657014177</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.959658018345067e-06</v>
+        <v>0.2059816981443421</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.04641855657014177</v>
+        <v>0.04458174545953802</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2059816981443421</v>
+        <v>1.366330616582198</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.04458174545953802</v>
+        <v>1.364812629501679</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.286367168529883</v>
+        <v>3.741122265778915</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.364812629501679</v>
+        <v>5.064047524286236e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.741122265778915</v>
+        <v>5129470.388242368</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.064047524286236e-14</v>
+        <v>1.720946924789011e-05</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>5129470.388242368</v>
+        <v>1.332425166066268</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.720946924789011e-05</v>
+        <v>0.0001951729876343014</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>1.332425166066268</v>
+        <v>12.33051238043097</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001951729876343014</v>
+        <v>1.047933832361442</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>12.33051238043097</v>
+        <v>0.02967440074052522</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.047933832361442</v>
+        <v>2.377904211143901</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02967440074052522</v>
+        <v>0.918767171681844</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.377904211143901</v>
+        <v>1.931319679189162</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.918767171681844</v>
+        <v>6</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.931319679189162</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1430830461770013</v>
       </c>
     </row>
@@ -4942,72 +4798,66 @@
         <v>2.330157721713505e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.977220192387778</v>
+        <v>9.875648894946906e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>3.372279343433499</v>
+        <v>2.969496841489384e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>9.875648894946906e-07</v>
+        <v>0.04186027166459989</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.969496841489384e-06</v>
+        <v>0.1870348981101672</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.04186027166459989</v>
+        <v>0.03673407890429725</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1870348981101672</v>
+        <v>1.369940823531424</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.03673407890429725</v>
+        <v>1.395232680917657</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.289189837440159</v>
+        <v>3.514622383791994</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.395232680917657</v>
+        <v>5.737784529558905e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.514622383791994</v>
+        <v>4544519.222727015</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>5.737784529558905e-14</v>
+        <v>1.944178369189759e-05</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>4544519.222727015</v>
+        <v>1.185004841567142</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.944178369189759e-05</v>
+        <v>0.0001867203819732356</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>1.185004841567142</v>
+        <v>11.98873994579933</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001867203819732356</v>
+        <v>1.062991869927577</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>11.98873994579933</v>
+        <v>0.02683729911928961</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.062991869927577</v>
+        <v>2.50109359949188</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.02683729911928961</v>
+        <v>0.918050057258803</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.50109359949188</v>
+        <v>1.921074280632683</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.918050057258803</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.921074280632683</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1449417203941537</v>
       </c>
     </row>
@@ -5022,72 +4872,66 @@
         <v>2.521347469869362e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.924858274499819</v>
+        <v>9.875682643095814e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2.839690423505313</v>
+        <v>2.97907290216446e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>9.875682643095814e-07</v>
+        <v>0.03732879973421592</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.97907290216446e-06</v>
+        <v>0.173101464463707</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.03732879973421592</v>
+        <v>0.03135752054682713</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.173101464463707</v>
+        <v>1.335427760707819</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03135752054682713</v>
+        <v>1.381794492740003</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.259693777074496</v>
+        <v>3.464708703927594</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.381794492740003</v>
+        <v>5.904296005839198e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.464708703927594</v>
+        <v>4550634.479592662</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>5.904296005839198e-14</v>
+        <v>1.881507508312496e-05</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>4550634.479592662</v>
+        <v>1.222677804512002</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.881507508312496e-05</v>
+        <v>0.0001686643074017219</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>1.222677804512002</v>
+        <v>9.968477510181705</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001686643074017219</v>
+        <v>1.347134564979985</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.968477510181705</v>
+        <v>0.01676026395813437</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.347134564979985</v>
+        <v>2.926333230981191</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01676026395813437</v>
+        <v>0.9138545462155157</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.926333230981191</v>
+        <v>1.936500758067792</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9138545462155157</v>
+        <v>1</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.936500758067792</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1461273014819326</v>
       </c>
     </row>
@@ -5102,72 +4946,66 @@
         <v>2.689658962759282e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.84230923924403</v>
+        <v>9.875682643095814e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.271080140480434</v>
+        <v>2.988436609747106e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>9.875682643095814e-07</v>
+        <v>0.03485055484975805</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.988436609747106e-06</v>
+        <v>0.1623127323032464</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.03485055484975805</v>
+        <v>0.02755948242485351</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1623127323032464</v>
+        <v>1.301866992294473</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02755948242485351</v>
+        <v>1.375197923801944</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.232917940095239</v>
+        <v>3.471174381412332</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.375197923801944</v>
+        <v>5.882320895717496e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.471174381412332</v>
+        <v>4744231.114687704</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>5.882320895717496e-14</v>
+        <v>1.753370995344966e-05</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>4744231.114687704</v>
+        <v>1.32397683844621</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.753370995344966e-05</v>
+        <v>0.0001768763581252604</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>1.32397683844621</v>
+        <v>9.160236122685223</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001768763581252604</v>
+        <v>1.721942834376336</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.160236122685223</v>
+        <v>0.0148416820901944</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.721942834376336</v>
+        <v>3.060259862562123</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.0148416820901944</v>
+        <v>0.907371034975419</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.060259862562123</v>
+        <v>1.949226845216561</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.907371034975419</v>
+        <v>3</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.949226845216561</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1458140502019596</v>
       </c>
     </row>
@@ -5182,72 +5020,66 @@
         <v>2.839349093914557e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.742739755574943</v>
+        <v>9.875682643095814e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1.719897360227818</v>
+        <v>2.997864895347363e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>9.875682643095814e-07</v>
+        <v>0.03328335753334252</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.997864895347363e-06</v>
+        <v>0.1535385692273048</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.03328335753334252</v>
+        <v>0.02467955433742213</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1535385692273048</v>
+        <v>1.283888003076999</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02467955433742213</v>
+        <v>1.371567574144565</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.215578266971825</v>
+        <v>3.404738689777044</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.371567574144565</v>
+        <v>6.114120654167104e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.404738689777044</v>
+        <v>4722194.70149163</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>6.114120654167104e-14</v>
+        <v>1.769562461806492e-05</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>4722194.70149163</v>
+        <v>1.363395272739249</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.769562461806492e-05</v>
+        <v>0.0001555204940317746</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>1.363395272739249</v>
+        <v>10.3963651583715</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001555204940317746</v>
+        <v>1.260290474526875</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.3963651583715</v>
+        <v>0.01680934060801649</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.260290474526875</v>
+        <v>3.001567361633741</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01680934060801649</v>
+        <v>0.9058605620336979</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.001567361633741</v>
+        <v>1.9485088448973</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9058605620336979</v>
+        <v>3</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.9485088448973</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1581419125605857</v>
       </c>
     </row>
@@ -5262,72 +5094,66 @@
         <v>2.966531459610061e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.631915415608709</v>
+        <v>9.875682643095814e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1.205998270859038</v>
+        <v>3.00730268067399e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>9.875682643095814e-07</v>
+        <v>0.03170864093869741</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.00730268067399e-06</v>
+        <v>0.1471472918938493</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.03170864093869741</v>
+        <v>0.02265400163641117</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1471472918938493</v>
+        <v>1.25766855677427</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02265400163641117</v>
+        <v>1.366585397378961</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.193656387273283</v>
+        <v>3.432801354997493</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.366585397378961</v>
+        <v>6.014565108534446e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.432801354997493</v>
+        <v>4957344.469390019</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>6.014565108534446e-14</v>
+        <v>1.666776034959829e-05</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>4957344.469390019</v>
+        <v>1.478095265193145</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.666776034959829e-05</v>
+        <v>0.000162463911977691</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>1.478095265193145</v>
+        <v>11.73710210864733</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.000162463911977691</v>
+        <v>1.097209867919895</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>11.73710210864733</v>
+        <v>0.02238095798989442</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.097209867919895</v>
+        <v>2.741558950049967</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.02238095798989442</v>
+        <v>0.900585756833437</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.741558950049967</v>
+        <v>1.93445994623399</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.900585756833437</v>
+        <v>3</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.93445994623399</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1618773745293763</v>
       </c>
     </row>
@@ -5342,72 +5168,66 @@
         <v>3.070036641098104e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.516991824658219</v>
+        <v>9.875682643095814e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.7512362158614154</v>
+        <v>3.016732087014509e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>9.875682643095814e-07</v>
+        <v>0.03085995385262947</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.016732087014509e-06</v>
+        <v>0.1418689092694257</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.03085995385262947</v>
+        <v>0.02107528268681224</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1418689092694257</v>
+        <v>1.252211126915288</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02107528268681224</v>
+        <v>1.351078030293077</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.188253409452031</v>
+        <v>3.494186361505488</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.351078030293077</v>
+        <v>5.805096558834652e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.494186361505488</v>
+        <v>5213354.141364085</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5.805096558834652e-14</v>
+        <v>1.591409491235632e-05</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>5213354.141364085</v>
+        <v>1.577770758245252</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.591409491235632e-05</v>
+        <v>0.0001519517687261939</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>1.577770758245252</v>
+        <v>11.38770399446326</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001519517687261939</v>
+        <v>1.093374788075971</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>11.38770399446326</v>
+        <v>0.01970507532230802</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.093374788075971</v>
+        <v>2.796016338793478</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01970507532230802</v>
+        <v>0.8980912905842273</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.796016338793478</v>
+        <v>1.941358057993923</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.8980912905842273</v>
+        <v>4</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.941358057993923</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1673843096383903</v>
       </c>
     </row>
@@ -5422,72 +5242,66 @@
         <v>3.153319505428623e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.403651420969019</v>
+        <v>9.875682643095814e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.3637218391849331</v>
+        <v>3.026319051680416e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>9.875682643095814e-07</v>
+        <v>0.03046124977986471</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.026319051680416e-06</v>
+        <v>0.1374952457478348</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.03046124977986471</v>
+        <v>0.01983193673531796</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1374952457478348</v>
+        <v>1.260341854462755</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01983193673531796</v>
+        <v>1.325317929579385</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.195502107905886</v>
+        <v>3.574345797862431</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.325317929579385</v>
+        <v>5.547642223471888e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.574345797862431</v>
+        <v>5528079.232502583</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.547642223471888e-14</v>
+        <v>1.528017087855813e-05</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>5528079.232502583</v>
+        <v>1.695340601555292</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.528017087855813e-05</v>
+        <v>0.0001236107350102353</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1.695340601555292</v>
+        <v>9.654251795498579</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001236107350102353</v>
+        <v>1.31069147104018</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.654251795498579</v>
+        <v>0.01152108635963362</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.31069147104018</v>
+        <v>3.200886387777378</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01152108635963362</v>
+        <v>0.8977445864667274</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.200886387777378</v>
+        <v>1.936278140882451</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.8977445864667274</v>
+        <v>4</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.936278140882451</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1803728429879317</v>
       </c>
     </row>
@@ -5502,72 +5316,66 @@
         <v>3.221837070404507e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.297793377942544</v>
+        <v>9.875682643095814e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.04157387841112747</v>
+        <v>3.035781782453851e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>9.875682643095814e-07</v>
+        <v>0.02892643837837081</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.035781782453851e-06</v>
+        <v>0.1351115790757925</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.02892643837837081</v>
+        <v>0.01909182669566027</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1351115790757925</v>
+        <v>1.271240867228611</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01909182669566027</v>
+        <v>1.297996849060579</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.206281407239748</v>
+        <v>3.732326950569759</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.297996849060579</v>
+        <v>5.087942737352394e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.732326950569759</v>
+        <v>6038198.486332928</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.087942737352394e-14</v>
+        <v>1.40564556377588e-05</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>6038198.486332928</v>
+        <v>1.855055830192527</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.40564556377588e-05</v>
+        <v>0.0001288951247624227</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>1.855055830192527</v>
+        <v>9.470491249228893</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001288951247624227</v>
+        <v>1.944630154578448</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.470491249228893</v>
+        <v>0.01156063009921654</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.944630154578448</v>
+        <v>3.400998755275965</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01156063009921654</v>
+        <v>0.8968697302667975</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.400998755275965</v>
+        <v>1.934644580738756</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.8968697302667975</v>
+        <v>4</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.934644580738756</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1946536994799788</v>
       </c>
     </row>
@@ -5582,72 +5390,66 @@
         <v>3.282242975490258e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.199929197441503</v>
+        <v>9.875682643095814e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.2305750141633713</v>
+        <v>3.045041057948245e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>9.875682643095814e-07</v>
+        <v>0.02820181497966278</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.045041057948245e-06</v>
+        <v>0.1327004562464648</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.02820181497966278</v>
+        <v>0.01840484045084116</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1327004562464648</v>
+        <v>1.276110563486758</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01840484045084116</v>
+        <v>1.287728549025538</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.214430403524281</v>
+        <v>3.999013181548722</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.287728549025538</v>
+        <v>4.138174708740009e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.999013181548722</v>
+        <v>7534887.44255587</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>4.138174708740009e-14</v>
+        <v>1.121375631858313e-05</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>7534887.44255587</v>
+        <v>2.34942919064865</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.121375631858313e-05</v>
+        <v>0.000102128112821905</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>2.34942919064865</v>
+        <v>8.833066633954683</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.000102128112821905</v>
+        <v>1.78992418564456</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.833066633954683</v>
+        <v>0.007968348503487543</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.78992418564456</v>
+        <v>3.44217860048119</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007968348503487543</v>
+        <v>0.8973952531605954</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.44217860048119</v>
+        <v>1.958259969769372</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.8973952531605954</v>
+        <v>4</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.958259969769372</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.219268864418792</v>
       </c>
     </row>
@@ -6024,7 +5826,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.45963240267796</v>
+        <v>1.383650473637996</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.474008365034877</v>
@@ -6113,7 +5915,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.48359161252286</v>
+        <v>1.398903249010012</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.286197768799565</v>
@@ -6202,7 +6004,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.464031172552014</v>
+        <v>1.379799664586493</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.46577175364038</v>
@@ -6291,7 +6093,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.485376085207511</v>
+        <v>1.396465102420412</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.474987839769044</v>
@@ -6380,7 +6182,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.47302146436561</v>
+        <v>1.388297769098204</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.551421517243455</v>
@@ -6469,7 +6271,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.487707524217569</v>
+        <v>1.402724192852681</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.478392867282571</v>
@@ -6558,7 +6360,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.460071499883956</v>
+        <v>1.382372003102914</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.429514554754938</v>
@@ -6647,7 +6449,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.477031364259553</v>
+        <v>1.39711106140621</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.371301575246185</v>
@@ -6736,7 +6538,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.492768419956497</v>
+        <v>1.405014355900723</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.487892000063533</v>
@@ -6825,7 +6627,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.476328478777583</v>
+        <v>1.385801336404969</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.456395680954966</v>
@@ -6914,7 +6716,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.477568883788601</v>
+        <v>1.38325678814492</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.479608898128884</v>
@@ -7003,7 +6805,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.459921901980052</v>
+        <v>1.372097034722706</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.335493645532538</v>
@@ -7092,7 +6894,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.475517731494937</v>
+        <v>1.384189332189496</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.39081086680154</v>
@@ -7181,7 +6983,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.472014685633131</v>
+        <v>1.384788378783919</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.353212372211752</v>
@@ -7270,7 +7072,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.485903388874722</v>
+        <v>1.394555294976159</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.302124929785954</v>
@@ -7359,7 +7161,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.487233861393487</v>
+        <v>1.396897288721866</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.441450928456033</v>
@@ -7448,7 +7250,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.491436673706079</v>
+        <v>1.402803625964553</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.372651835994805</v>
@@ -7537,7 +7339,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.51315648028401</v>
+        <v>1.419421570297051</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.40647282318744</v>
@@ -7626,7 +7428,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.481774154408769</v>
+        <v>1.400262932052474</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.433913585346363</v>
@@ -7715,7 +7517,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.490837858145056</v>
+        <v>1.405811664308547</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.20431875716574</v>
@@ -7804,7 +7606,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.476492814480854</v>
+        <v>1.398249169060577</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.387842038372678</v>
@@ -7893,7 +7695,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.493565429063508</v>
+        <v>1.4136967813495</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.540015831265039</v>
@@ -7982,7 +7784,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.490347602187408</v>
+        <v>1.405570607204569</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.268724777373585</v>
@@ -8071,7 +7873,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.477818263229565</v>
+        <v>1.398466715362455</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.196747615934504</v>
@@ -8160,7 +7962,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.487817454759031</v>
+        <v>1.412474776857878</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.295415973947637</v>
@@ -8249,7 +8051,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.492929484334547</v>
+        <v>1.42624174059295</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.345476941348593</v>
@@ -8338,7 +8140,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.524095936436972</v>
+        <v>1.452083705235266</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.387495247687684</v>
@@ -8427,7 +8229,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.509943590499409</v>
+        <v>1.443825514268923</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.362975917065809</v>
@@ -8516,7 +8318,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.512068785233729</v>
+        <v>1.442370578199943</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.419707519985006</v>
@@ -8605,7 +8407,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.514555153925405</v>
+        <v>1.447394290184808</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.383140557525428</v>
@@ -8694,7 +8496,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.518479499492801</v>
+        <v>1.455115074182809</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.414939756669956</v>
@@ -8783,7 +8585,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.515882164168977</v>
+        <v>1.458172282235321</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.532572308647721</v>
@@ -8872,7 +8674,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.542082898741025</v>
+        <v>1.474914839984368</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.19932425960348</v>
@@ -8961,7 +8763,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.55701431233064</v>
+        <v>1.483296014866228</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.278139435364306</v>
@@ -9050,7 +8852,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.576662350468271</v>
+        <v>1.490408377728155</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.212634891331652</v>
@@ -9139,7 +8941,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.579867502155129</v>
+        <v>1.492726552712685</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.333721020651827</v>
@@ -9228,7 +9030,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.582232495583557</v>
+        <v>1.504268494265637</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.487171827210036</v>
@@ -9317,7 +9119,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.586656009706323</v>
+        <v>1.515908131981902</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.386064435613704</v>
@@ -9406,7 +9208,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.625712865072293</v>
+        <v>1.543101204150037</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.370954962469184</v>
@@ -9495,7 +9297,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.622408164898746</v>
+        <v>1.544294747652796</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.381128859192307</v>
@@ -9584,7 +9386,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.618968989637773</v>
+        <v>1.533271504375881</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.496944630341711</v>
@@ -9673,7 +9475,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.614773604133474</v>
+        <v>1.534811463499721</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.270005908630802</v>
@@ -9762,7 +9564,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.634713360126249</v>
+        <v>1.549407736151154</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.371455320917912</v>
@@ -9851,7 +9653,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.604055241870091</v>
+        <v>1.529989996721202</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.346716514223602</v>
@@ -9940,7 +9742,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.605492700320626</v>
+        <v>1.532677192549435</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.398902425454565</v>
@@ -10029,7 +9831,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.571866748570517</v>
+        <v>1.507225881721207</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.438707106944482</v>
@@ -10118,7 +9920,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.567542342827895</v>
+        <v>1.497567539943871</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.346579106469552</v>
@@ -10207,7 +10009,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.561106519384435</v>
+        <v>1.49055163423285</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.378842778186509</v>
@@ -10296,7 +10098,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.563133060885804</v>
+        <v>1.491200670470938</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.578739143336022</v>
@@ -10385,7 +10187,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.577605236492871</v>
+        <v>1.490389788483313</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.127463673088335</v>
@@ -10474,7 +10276,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.601951760368194</v>
+        <v>1.504034589603144</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.668231635633645</v>
@@ -10563,7 +10365,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.593036583219632</v>
+        <v>1.49391247166492</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.52661178364892</v>
@@ -10652,7 +10454,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.581340204974099</v>
+        <v>1.48331854666517</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.381433335500845</v>
@@ -10741,7 +10543,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.5833284196407</v>
+        <v>1.48445922981542</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.620102974676421</v>
@@ -10830,7 +10632,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.570555513572955</v>
+        <v>1.479431611125066</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.548671142421065</v>
@@ -10919,7 +10721,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.567325085266144</v>
+        <v>1.476463689034154</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.553124058386641</v>
@@ -11008,7 +10810,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.572560615913279</v>
+        <v>1.478004282418917</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.605731867910213</v>
@@ -11097,7 +10899,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.572842530173839</v>
+        <v>1.480118438840924</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.611931036747726</v>
@@ -11186,7 +10988,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.60619465301992</v>
+        <v>1.508500502723625</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.51929385173444</v>
@@ -11275,7 +11077,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.594039984023577</v>
+        <v>1.488571825869966</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.228084316036625</v>
@@ -11364,7 +11166,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.615678239309924</v>
+        <v>1.503760890412848</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.587043245173255</v>
@@ -11453,7 +11255,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.623976552593561</v>
+        <v>1.507135106630199</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.618659875085682</v>
@@ -11542,7 +11344,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.634427337427856</v>
+        <v>1.520725238968363</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.441639073959632</v>
@@ -11631,7 +11433,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.63053468097112</v>
+        <v>1.524024369645223</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.400880801787396</v>
@@ -11720,7 +11522,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.628594053475607</v>
+        <v>1.537339766359658</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.369192269793631</v>
@@ -11809,7 +11611,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.648163010623174</v>
+        <v>1.557110884586668</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.733186128293471</v>
@@ -11898,7 +11700,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.647235089853512</v>
+        <v>1.567226464584312</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.951841240771035</v>
@@ -11987,7 +11789,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.652647328987642</v>
+        <v>1.571428405506306</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.976156609851965</v>
@@ -12076,7 +11878,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.646781838610668</v>
+        <v>1.569252636787405</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.945482631917731</v>
@@ -12165,7 +11967,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.673196312083567</v>
+        <v>1.589272677175116</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.202231941847549</v>
@@ -12254,7 +12056,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.67781009033304</v>
+        <v>1.604134168278406</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.194754375653343</v>
@@ -12343,7 +12145,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.66900075389573</v>
+        <v>1.598983286078433</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.787218304937839</v>
@@ -12432,7 +12234,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.67363369037706</v>
+        <v>1.603300316796366</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.422375142508968</v>
@@ -12521,7 +12323,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.65841596349847</v>
+        <v>1.592501092256666</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.544077604534932</v>
@@ -12610,7 +12412,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.663358027303948</v>
+        <v>1.597528305073492</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.156056500938538</v>
@@ -12699,7 +12501,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.642956941034139</v>
+        <v>1.589027311915997</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.453064917690786</v>
@@ -12985,7 +12787,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.415891954835987</v>
+        <v>1.336901170220811</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.678969191922048</v>
@@ -13074,7 +12876,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.434303932938679</v>
+        <v>1.35175437374307</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.536125695136702</v>
@@ -13163,7 +12965,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.423064052569091</v>
+        <v>1.342319473926428</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.676438911767415</v>
@@ -13252,7 +13054,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.433473431054447</v>
+        <v>1.350143663536248</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.599043176790286</v>
@@ -13341,7 +13143,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.432170933827549</v>
+        <v>1.346421700958526</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.517610227220068</v>
@@ -13430,7 +13232,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.438291075189142</v>
+        <v>1.354866441314721</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.594394750693846</v>
@@ -13519,7 +13321,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.392394635290526</v>
+        <v>1.320089871841485</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.091374430151151</v>
@@ -13608,7 +13410,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.37554436800536</v>
+        <v>1.309634566751532</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.118365335076341</v>
@@ -13697,7 +13499,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.386243344373289</v>
+        <v>1.312271494631212</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.098150233608534</v>
@@ -13786,7 +13588,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.381471995840822</v>
+        <v>1.306887941993279</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.143322922974144</v>
@@ -13875,7 +13677,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.382246827197299</v>
+        <v>1.306482515476198</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.093527415760859</v>
@@ -13964,7 +13766,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.373593747246424</v>
+        <v>1.299109898333204</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.13608817849128</v>
@@ -14053,7 +13855,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.380025533779571</v>
+        <v>1.310429153315369</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.01253957818189</v>
@@ -14142,7 +13944,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.405664371884238</v>
+        <v>1.33127771504299</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.077074203571741</v>
@@ -14231,7 +14033,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.436886362378602</v>
+        <v>1.356268204799604</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.07526371367982</v>
@@ -14320,7 +14122,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.434689832339698</v>
+        <v>1.359036885168067</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.033843897332939</v>
@@ -14409,7 +14211,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.438072798168561</v>
+        <v>1.364577852925473</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.058971109178282</v>
@@ -14498,7 +14300,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.444845718346182</v>
+        <v>1.368572395442376</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.046125413725501</v>
@@ -14587,7 +14389,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.425625497429647</v>
+        <v>1.358320491296001</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.069178431386266</v>
@@ -14676,7 +14478,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.42483791220529</v>
+        <v>1.358679639759218</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.084760598381269</v>
@@ -14765,7 +14567,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.423976594906353</v>
+        <v>1.359213099852919</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.998695602591164</v>
@@ -14854,7 +14656,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.487009572447071</v>
+        <v>1.407288066474645</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.134402716483154</v>
@@ -14943,7 +14745,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.501450953045534</v>
+        <v>1.415781818362872</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.580473960236365</v>
@@ -15032,7 +14834,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.497663888682145</v>
+        <v>1.416288354493033</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.345132122630952</v>
@@ -15121,7 +14923,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.504593242371722</v>
+        <v>1.430714912133809</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.423813232972319</v>
@@ -15210,7 +15012,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.512336222836349</v>
+        <v>1.44632859231599</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.599003265119177</v>
@@ -15299,7 +15101,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.538099599554131</v>
+        <v>1.4695203731668</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.623177952268283</v>
@@ -15388,7 +15190,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.529729884690046</v>
+        <v>1.461139899866304</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.604760996040345</v>
@@ -15477,7 +15279,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.522549302728986</v>
+        <v>1.44684189605599</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.764438311096278</v>
@@ -15566,7 +15368,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.52934578879872</v>
+        <v>1.453328047360924</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.693863149713009</v>
@@ -15655,7 +15457,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.529889651932536</v>
+        <v>1.45533547183152</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.764546552702138</v>
@@ -15744,7 +15546,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.529059781531503</v>
+        <v>1.458349731621739</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.721112853016194</v>
@@ -15833,7 +15635,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.532728125573958</v>
+        <v>1.460107676661278</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.190200061642737</v>
@@ -15922,7 +15724,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.551657103314954</v>
+        <v>1.470294418273297</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.583152331928242</v>
@@ -16011,7 +15813,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.567691310365392</v>
+        <v>1.478904914879537</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.574456644099593</v>
@@ -16100,7 +15902,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.565214024661298</v>
+        <v>1.470525971360362</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.597354864350532</v>
@@ -16189,7 +15991,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.57220835248299</v>
+        <v>1.477457014773826</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.684511861688573</v>
@@ -16278,7 +16080,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.574052250635586</v>
+        <v>1.485710089394929</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.727032117224739</v>
@@ -16367,7 +16169,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.59378731542422</v>
+        <v>1.504377807166013</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.78069652942739</v>
@@ -16456,7 +16258,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.587920672769077</v>
+        <v>1.503214400105813</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.775391323865021</v>
@@ -16545,7 +16347,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.59067492455786</v>
+        <v>1.49927687437814</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.738261852618033</v>
@@ -16634,7 +16436,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.585786716222169</v>
+        <v>1.50121887194742</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.58093611724779</v>
@@ -16723,7 +16525,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.597022912159687</v>
+        <v>1.513099774946352</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.652814947763229</v>
@@ -16812,7 +16614,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.570076980089479</v>
+        <v>1.498587320062422</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.792050314680809</v>
@@ -16901,7 +16703,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.556191974050566</v>
+        <v>1.482964646661948</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.709755180972313</v>
@@ -16990,7 +16792,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.525976099942729</v>
+        <v>1.463098944966635</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.728883560249261</v>
@@ -17079,7 +16881,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.519894890097479</v>
+        <v>1.45334243589856</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.314251268432218</v>
@@ -17168,7 +16970,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.522012803575318</v>
+        <v>1.451943651634279</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.62301602528388</v>
@@ -17257,7 +17059,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.513940259258429</v>
+        <v>1.43790993893701</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.796382158348857</v>
@@ -17346,7 +17148,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.526304363407203</v>
+        <v>1.441299436838588</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.407657534774196</v>
@@ -17435,7 +17237,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.539924853915793</v>
+        <v>1.453838300961499</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.739162794377207</v>
@@ -17524,7 +17326,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.540034576248833</v>
+        <v>1.453054962116221</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.451744545754298</v>
@@ -17613,7 +17415,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.533070897813982</v>
+        <v>1.443209422684345</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.337718288148438</v>
@@ -17702,7 +17504,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.525077175608702</v>
+        <v>1.437436075118389</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.753520210674167</v>
@@ -17791,7 +17593,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.526660259861437</v>
+        <v>1.440261646253062</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.676550050902482</v>
@@ -17880,7 +17682,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.519766704294213</v>
+        <v>1.434525090783404</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.865099492575915</v>
@@ -17969,7 +17771,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.52618503826115</v>
+        <v>1.437152786271755</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.806632087353787</v>
@@ -18058,7 +17860,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.521702624281466</v>
+        <v>1.437983172837783</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.84607398644786</v>
@@ -18147,7 +17949,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.547849683938611</v>
+        <v>1.46150595105588</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.761897318963387</v>
@@ -18236,7 +18038,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.554639774229158</v>
+        <v>1.465256487074154</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.514640763494809</v>
@@ -18325,7 +18127,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.577115681520578</v>
+        <v>1.487625202885142</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.857017338289109</v>
@@ -18414,7 +18216,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.578893405114473</v>
+        <v>1.494341050348689</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.624636297186798</v>
@@ -18503,7 +18305,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.597500841513438</v>
+        <v>1.523749832072787</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.813716039774937</v>
@@ -18592,7 +18394,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.59894282826941</v>
+        <v>1.536627873333163</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.818726480431855</v>
@@ -18681,7 +18483,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.592155011020373</v>
+        <v>1.540362922454735</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.830206530692312</v>
@@ -18770,7 +18572,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.598544699992241</v>
+        <v>1.562024149044673</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.917354691500727</v>
@@ -18859,7 +18661,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.583107157504516</v>
+        <v>1.562061867482095</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.878942887605695</v>
@@ -18948,7 +18750,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.586466502264511</v>
+        <v>1.570893915758982</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.771646995901007</v>
@@ -19037,7 +18839,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.599467212380265</v>
+        <v>1.586978275431026</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.869539086443869</v>
@@ -19126,7 +18928,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.603537938485383</v>
+        <v>1.596773037611296</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.960178423045453</v>
@@ -19215,7 +19017,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.614472532568858</v>
+        <v>1.612336667631928</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.103089846683895</v>
@@ -19304,7 +19106,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.606513619475503</v>
+        <v>1.60802448724936</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.138967378768648</v>
@@ -19393,7 +19195,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.600061677806418</v>
+        <v>1.604264922471929</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.207623376311322</v>
@@ -19482,7 +19284,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.588793452021664</v>
+        <v>1.59936073399338</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.266958338935336</v>
@@ -19571,7 +19373,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.596028534970622</v>
+        <v>1.600972199888476</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.044348496902221</v>
@@ -19660,7 +19462,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.585531933025063</v>
+        <v>1.597267008838062</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.84043739855977</v>
@@ -19946,7 +19748,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.691192640986622</v>
+        <v>1.529774823763703</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.298224956621927</v>
@@ -20035,7 +19837,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.709480675260005</v>
+        <v>1.549712692020685</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.101118537208027</v>
@@ -20124,7 +19926,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.702877545916386</v>
+        <v>1.53947461326211</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.417188190195212</v>
@@ -20213,7 +20015,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.701462911821582</v>
+        <v>1.538746533818198</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.424723054915458</v>
@@ -20302,7 +20104,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.722188312370265</v>
+        <v>1.56259995685869</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.034067927840918</v>
@@ -20391,7 +20193,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.724862314162221</v>
+        <v>1.566351053192594</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.318622306403189</v>
@@ -20480,7 +20282,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.716044111827006</v>
+        <v>1.561543381464358</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.150133732605327</v>
@@ -20569,7 +20371,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.711304229953083</v>
+        <v>1.559177694791043</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.107782697082079</v>
@@ -20658,7 +20460,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.718264159085022</v>
+        <v>1.559858163321311</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.197774767640754</v>
@@ -20747,7 +20549,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.702964957859593</v>
+        <v>1.54441146021577</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.225576088004196</v>
@@ -20836,7 +20638,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.691177757814803</v>
+        <v>1.538159386518319</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.334013942147508</v>
@@ -20925,7 +20727,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.690591149381008</v>
+        <v>1.541655631804246</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.372241739070779</v>
@@ -21014,7 +20816,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.682507836201951</v>
+        <v>1.537832022317064</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.02740164551351</v>
@@ -21103,7 +20905,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.676222083145694</v>
+        <v>1.53780377055304</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.133179594225924</v>
@@ -21192,7 +20994,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.676148080109121</v>
+        <v>1.541674017146694</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.134004236831162</v>
@@ -21281,7 +21083,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.664128674414703</v>
+        <v>1.53738783196649</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.317440028825665</v>
@@ -21370,7 +21172,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.666909247611108</v>
+        <v>1.537838383750742</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.167938222116201</v>
@@ -21459,7 +21261,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.661840051181522</v>
+        <v>1.538386885336967</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.984075526877521</v>
@@ -21548,7 +21350,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.65763405260581</v>
+        <v>1.535033638324851</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.328984699189404</v>
@@ -21637,7 +21439,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.648838661657185</v>
+        <v>1.52758506329528</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.981899963033117</v>
@@ -21726,7 +21528,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.652245234752848</v>
+        <v>1.536383335925964</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.873552544451352</v>
@@ -21815,7 +21617,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.667295094066684</v>
+        <v>1.549277651304462</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.850577850333874</v>
@@ -21904,7 +21706,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.665589879669262</v>
+        <v>1.545804415545782</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.261779227747099</v>
@@ -21993,7 +21795,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.662691254222185</v>
+        <v>1.544639255599265</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.567834425913344</v>
@@ -22082,7 +21884,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.680210585444332</v>
+        <v>1.559185239949174</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.320203269953603</v>
@@ -22171,7 +21973,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.678124190478135</v>
+        <v>1.561078892109344</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.835263094100978</v>
@@ -22260,7 +22062,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.68711996398418</v>
+        <v>1.568574568116133</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.666530491654827</v>
@@ -22349,7 +22151,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.693035961923156</v>
+        <v>1.578185185682865</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.813757381113339</v>
@@ -22438,7 +22240,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.695255547039793</v>
+        <v>1.575908368763182</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.058748859840348</v>
@@ -22527,7 +22329,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.694612374570194</v>
+        <v>1.577658944279618</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.716002240707643</v>
@@ -22616,7 +22418,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.699266296375917</v>
+        <v>1.578658476587032</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.906234368565657</v>
@@ -22705,7 +22507,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.684766910055115</v>
+        <v>1.569038074420161</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.185816930063401</v>
@@ -22794,7 +22596,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.684170525607833</v>
+        <v>1.567158783880263</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.554551839806371</v>
@@ -22883,7 +22685,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.684338423537306</v>
+        <v>1.570926916080938</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.646291712760505</v>
@@ -22972,7 +22774,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.686698245376655</v>
+        <v>1.566584111113055</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.532427518553626</v>
@@ -23061,7 +22863,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.685476570578824</v>
+        <v>1.564126694912761</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.310325580177016</v>
@@ -23150,7 +22952,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.677891561640956</v>
+        <v>1.558244081828662</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.363009624003217</v>
@@ -23239,7 +23041,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.680737746119991</v>
+        <v>1.568619126919497</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.816283779068059</v>
@@ -23328,7 +23130,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.682719434499143</v>
+        <v>1.570633211620016</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.34904804695647</v>
@@ -23417,7 +23219,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.672684589954546</v>
+        <v>1.563280487721325</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.292332564425839</v>
@@ -23506,7 +23308,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.668806296637425</v>
+        <v>1.555499943847629</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.30652232171506</v>
@@ -23595,7 +23397,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.662660582103775</v>
+        <v>1.555918257062281</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.492208157738963</v>
@@ -23684,7 +23486,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.657148485774536</v>
+        <v>1.55339267554717</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.705787711425869</v>
@@ -23773,7 +23575,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.668368888628628</v>
+        <v>1.564342219206197</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.718299904108215</v>
@@ -23862,7 +23664,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.679880985895243</v>
+        <v>1.572668076303161</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.768285433291164</v>
@@ -23951,7 +23753,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.680154974841695</v>
+        <v>1.573932118565678</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.667334521180468</v>
@@ -24040,7 +23842,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.6717296060398</v>
+        <v>1.566236699913973</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.052506524797975</v>
@@ -24129,7 +23931,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.672808155936104</v>
+        <v>1.55975438485755</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.58260602274146</v>
@@ -24218,7 +24020,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.664840685999702</v>
+        <v>1.55306804900506</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.008782848491686</v>
@@ -24307,7 +24109,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.685094851576789</v>
+        <v>1.561650859885665</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.183797599247518</v>
@@ -24396,7 +24198,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.694319666491371</v>
+        <v>1.563319370917432</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.079937169687006</v>
@@ -24485,7 +24287,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.706020207738923</v>
+        <v>1.575120946141576</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.502513933107364</v>
@@ -24574,7 +24376,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.700039792838104</v>
+        <v>1.570862370133304</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.330097692660315</v>
@@ -24663,7 +24465,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.699720601010072</v>
+        <v>1.57303044631542</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.244789908452746</v>
@@ -24752,7 +24554,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.70441509146429</v>
+        <v>1.584731929273646</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.448883621131857</v>
@@ -24841,7 +24643,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.698959882567656</v>
+        <v>1.580227725497683</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.435145120402395</v>
@@ -24930,7 +24732,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.69992147927924</v>
+        <v>1.575330842979741</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.333585111645375</v>
@@ -25019,7 +24821,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.701097933170365</v>
+        <v>1.574146795704329</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.099154196808334</v>
@@ -25108,7 +24910,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.704325631850494</v>
+        <v>1.580199074922027</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.399782173976352</v>
@@ -25197,7 +24999,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.686877107610238</v>
+        <v>1.563771260170007</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.086687481858026</v>
@@ -25286,7 +25088,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.687909332311015</v>
+        <v>1.563422535599725</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.138794908005921</v>
@@ -25375,7 +25177,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.696456520021267</v>
+        <v>1.569136439025322</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.113950871308407</v>
@@ -25464,7 +25266,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.698875943368925</v>
+        <v>1.579162490126842</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.131486223586798</v>
@@ -25553,7 +25355,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.706815411396067</v>
+        <v>1.5876398973476</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.489308240361737</v>
@@ -25642,7 +25444,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.689687428932283</v>
+        <v>1.589342989610378</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.544928825299504</v>
@@ -25731,7 +25533,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.679647126054833</v>
+        <v>1.590592575233478</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.622857969978909</v>
@@ -25820,7 +25622,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.676127287887125</v>
+        <v>1.591992722303694</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.925180191209942</v>
@@ -25909,7 +25711,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.689957520514738</v>
+        <v>1.602613365827252</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.604040965539425</v>
@@ -25998,7 +25800,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.69256855202773</v>
+        <v>1.609122581990618</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.797581494974076</v>
@@ -26087,7 +25889,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.698653729296872</v>
+        <v>1.610673218963581</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.424377093635468</v>
@@ -26176,7 +25978,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.700757945330763</v>
+        <v>1.618304829100234</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.760777877380643</v>
@@ -26265,7 +26067,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.696259361365086</v>
+        <v>1.613826732999857</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.314095390324598</v>
@@ -26354,7 +26156,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.701758307523898</v>
+        <v>1.618101227286045</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.993718223768302</v>
@@ -26443,7 +26245,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.689882008197208</v>
+        <v>1.609652361515855</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.493183391553349</v>
@@ -26532,7 +26334,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.690070243157509</v>
+        <v>1.613137568590797</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.969480906701311</v>
@@ -26621,7 +26423,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.695227421839632</v>
+        <v>1.616015462852664</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.451520500819388</v>
@@ -26907,7 +26709,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.709713940063416</v>
+        <v>1.559880773928329</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.255428840458356</v>
@@ -26996,7 +26798,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.711077660323891</v>
+        <v>1.560686812263515</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.379136048427119</v>
@@ -27085,7 +26887,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.708882883927516</v>
+        <v>1.565340294081137</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.603235827168093</v>
@@ -27174,7 +26976,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.71203845145039</v>
+        <v>1.574001723498406</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.284838511964798</v>
@@ -27263,7 +27065,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.718597127699424</v>
+        <v>1.582827191163565</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.468334163969974</v>
@@ -27352,7 +27154,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.720423654370177</v>
+        <v>1.587888675392995</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.306998923903366</v>
@@ -27441,7 +27243,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.729729251229963</v>
+        <v>1.601807608106543</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.284136132831565</v>
@@ -27530,7 +27332,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.729075882257475</v>
+        <v>1.602578006516151</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.283234647369361</v>
@@ -27619,7 +27421,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.742579293931432</v>
+        <v>1.618491470255085</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.050200448748398</v>
@@ -27708,7 +27510,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.736931338437418</v>
+        <v>1.596541801216388</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.134726256568681</v>
@@ -27797,7 +27599,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.732144476561795</v>
+        <v>1.586662555805839</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.224341153546916</v>
@@ -27886,7 +27688,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.736419714249087</v>
+        <v>1.590840319276961</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.173509509307562</v>
@@ -27975,7 +27777,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.727737601313177</v>
+        <v>1.581202489338498</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.446950535655397</v>
@@ -28064,7 +27866,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.736004774693959</v>
+        <v>1.593667146026948</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.243921686124017</v>
@@ -28153,7 +27955,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.741281280533584</v>
+        <v>1.603120763834275</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.273157342409683</v>
@@ -28242,7 +28044,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.734839095654658</v>
+        <v>1.593832200893482</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.203908543685106</v>
@@ -28331,7 +28133,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.725879692834056</v>
+        <v>1.592206184273362</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.021342575650465</v>
@@ -28420,7 +28222,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.71816816930438</v>
+        <v>1.579276446526907</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.354275627068607</v>
@@ -28509,7 +28311,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.714294328594613</v>
+        <v>1.576438033228508</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.961869674504427</v>
@@ -28598,7 +28400,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.706448467513065</v>
+        <v>1.570650401882487</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.258600381383562</v>
@@ -28687,7 +28489,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.705498141021662</v>
+        <v>1.567576931246956</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.374344859303458</v>
@@ -28776,7 +28578,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.707290252934766</v>
+        <v>1.568314097276517</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.759390540932341</v>
@@ -28865,7 +28667,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.701259031831555</v>
+        <v>1.561291632750303</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.13704382480623</v>
@@ -28954,7 +28756,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.691403949494626</v>
+        <v>1.551883505139627</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.129988174210536</v>
@@ -29043,7 +28845,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.700001749638635</v>
+        <v>1.579107066533456</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.738060496048067</v>
@@ -29132,7 +28934,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.694639972821959</v>
+        <v>1.588039248297425</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.812984678463847</v>
@@ -29221,7 +29023,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.697307111070524</v>
+        <v>1.589336368515299</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.688208029194068</v>
@@ -29310,7 +29112,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.703619017591827</v>
+        <v>1.599608499213094</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.666781435175916</v>
@@ -29399,7 +29201,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.697115778168257</v>
+        <v>1.588935274908351</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.586860122395434</v>
@@ -29488,7 +29290,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.686556807226347</v>
+        <v>1.576394146383667</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.763193344685371</v>
@@ -29577,7 +29379,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.70140680837793</v>
+        <v>1.581004547432387</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.071480306129894</v>
@@ -29666,7 +29468,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.705559551787926</v>
+        <v>1.592035747204084</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.612404167660797</v>
@@ -29755,7 +29557,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.714389393118954</v>
+        <v>1.610197551493176</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.726732770534847</v>
@@ -29844,7 +29646,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.722380241854351</v>
+        <v>1.610893731068346</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.768478062473904</v>
@@ -29933,7 +29735,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.723979000968212</v>
+        <v>1.614927254433448</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.678990574925882</v>
@@ -30022,7 +29824,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.734962619104373</v>
+        <v>1.615080009490094</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.65839500634363</v>
@@ -30111,7 +29913,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.745403314994294</v>
+        <v>1.622345377956701</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.166015894176762</v>
@@ -30200,7 +30002,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.751385181840599</v>
+        <v>1.63200119225361</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.667326867854014</v>
@@ -30289,7 +30091,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.747549685175616</v>
+        <v>1.62255018030657</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.555570586004414</v>
@@ -30378,7 +30180,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.738052911119338</v>
+        <v>1.603761412802914</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.802716236492864</v>
@@ -30467,7 +30269,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.743790094090269</v>
+        <v>1.604891591875133</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.568104229424024</v>
@@ -30556,7 +30358,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.736497115471794</v>
+        <v>1.596607944265536</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.261427685473772</v>
@@ -30645,7 +30447,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.738717925378963</v>
+        <v>1.598207589031597</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.92270530968328</v>
@@ -30734,7 +30536,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.739528323091062</v>
+        <v>1.614076285291278</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.557136796852015</v>
@@ -30823,7 +30625,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.734605425943158</v>
+        <v>1.610144100192784</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.642844166875189</v>
@@ -30912,7 +30714,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.732909459966163</v>
+        <v>1.614811672477358</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.814262019071285</v>
@@ -31001,7 +30803,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.726848208102053</v>
+        <v>1.601036598361544</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.091529933194424</v>
@@ -31090,7 +30892,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.726635502634414</v>
+        <v>1.600691948608701</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.767504122562953</v>
@@ -31179,7 +30981,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.722148333025177</v>
+        <v>1.60340529142753</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.356358836565104</v>
@@ -31268,7 +31070,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.718238054583991</v>
+        <v>1.596275107851172</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.59350126988025</v>
@@ -31357,7 +31159,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.712343689823926</v>
+        <v>1.607196060608857</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.049520417771239</v>
@@ -31446,7 +31248,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.701606732789142</v>
+        <v>1.600293303882668</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.892479006412697</v>
@@ -31535,7 +31337,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.695726785607011</v>
+        <v>1.591480299547259</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.442536960776585</v>
@@ -31624,7 +31426,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.695838358291635</v>
+        <v>1.59956607642111</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.547383119502073</v>
@@ -31713,7 +31515,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.694185607486665</v>
+        <v>1.600325832845888</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.044376573360381</v>
@@ -31802,7 +31604,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.692742206165144</v>
+        <v>1.600734026553311</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.078693096701553</v>
@@ -31891,7 +31693,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.689089238195817</v>
+        <v>1.602248937403433</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.556864023847776</v>
@@ -31980,7 +31782,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.679901412432873</v>
+        <v>1.593773230071711</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.338945959169507</v>
@@ -32069,7 +31871,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.688313485995086</v>
+        <v>1.595762966201316</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.183459709476209</v>
@@ -32158,7 +31960,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.683198473397021</v>
+        <v>1.584332908406687</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.610065138441537</v>
@@ -32247,7 +32049,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.679985149998655</v>
+        <v>1.583101940442792</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.102991112205508</v>
@@ -32336,7 +32138,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.68564094655526</v>
+        <v>1.5927122267242</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.150235268928475</v>
@@ -32425,7 +32227,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.674220679563719</v>
+        <v>1.588181804451024</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.251704126038356</v>
@@ -32514,7 +32316,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.658387148525324</v>
+        <v>1.582222782967399</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.360440483294458</v>
@@ -32603,7 +32405,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.66491851768327</v>
+        <v>1.595945527901298</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.194675825514659</v>
@@ -32692,7 +32494,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.662962856158217</v>
+        <v>1.59887433043356</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.331020896144834</v>
@@ -32781,7 +32583,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.67152886910899</v>
+        <v>1.609604388027955</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.29238697676099</v>
@@ -32870,7 +32672,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.689971902749103</v>
+        <v>1.628130489351491</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.173792978197354</v>
@@ -32959,7 +32761,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.693667459800628</v>
+        <v>1.638424299582109</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.265252118886935</v>
@@ -33048,7 +32850,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.696383754312413</v>
+        <v>1.641247790467703</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.377525687540398</v>
@@ -33137,7 +32939,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.692711432185987</v>
+        <v>1.641312713593058</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.992466837317107</v>
@@ -33226,7 +33028,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.686845007035047</v>
+        <v>1.640508346689928</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.772515348159324</v>
@@ -33315,7 +33117,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.69442401597882</v>
+        <v>1.645387974378057</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.263607839428875</v>
@@ -33404,7 +33206,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.688034803521812</v>
+        <v>1.64132780278626</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.181617253373529</v>
@@ -33493,7 +33295,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.695015241591536</v>
+        <v>1.64838946589469</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.820587556434366</v>
@@ -33582,7 +33384,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.691138468004159</v>
+        <v>1.64111180249421</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.686521675341496</v>
@@ -33868,7 +33670,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.575556667279901</v>
+        <v>1.492072172933495</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.924758391628679</v>
@@ -33957,7 +33759,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.577713852183948</v>
+        <v>1.492039824329771</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.80982712824151</v>
@@ -34046,7 +33848,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.564218805377388</v>
+        <v>1.481417933174146</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.91211225086268</v>
@@ -34135,7 +33937,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.573600678388009</v>
+        <v>1.48858486885426</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.879134681269842</v>
@@ -34224,7 +34026,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.577477199123718</v>
+        <v>1.490702082226759</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.007609380421475</v>
@@ -34313,7 +34115,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.582117233892719</v>
+        <v>1.497748968610165</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.620357675139775</v>
@@ -34402,7 +34204,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.556354765584271</v>
+        <v>1.48131477053611</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.480696933748201</v>
@@ -34491,7 +34293,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.563464642679867</v>
+        <v>1.489497116823369</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.281201307128652</v>
@@ -34580,7 +34382,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.574895649661763</v>
+        <v>1.498246825120414</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.409205821324971</v>
@@ -34669,7 +34471,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.564806775301991</v>
+        <v>1.481407838274152</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.531394200666411</v>
@@ -34758,7 +34560,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.566771206189598</v>
+        <v>1.480421184496032</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.460063943730293</v>
@@ -34847,7 +34649,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.546982413888709</v>
+        <v>1.468256857153823</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.285620862852249</v>
@@ -34936,7 +34738,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.550167656883695</v>
+        <v>1.47481906771599</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.360294514365292</v>
@@ -35025,7 +34827,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.56398802349025</v>
+        <v>1.481594897205606</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.453887037008012</v>
@@ -35114,7 +34916,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.573094959873649</v>
+        <v>1.489363880278961</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.361914080880491</v>
@@ -35203,7 +35005,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.578856988459823</v>
+        <v>1.49601335506764</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.388889219803149</v>
@@ -35292,7 +35094,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.583662570699687</v>
+        <v>1.503315665661575</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.323378853367961</v>
@@ -35381,7 +35183,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.587929945679414</v>
+        <v>1.507065440070967</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.487390075442016</v>
@@ -35470,7 +35272,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.563115156299776</v>
+        <v>1.488588934496837</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.419072944607843</v>
@@ -35559,7 +35361,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.562724055378904</v>
+        <v>1.493584255670833</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.314366877550427</v>
@@ -35648,7 +35450,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.551154083018517</v>
+        <v>1.483345050000693</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.331130987665802</v>
@@ -35737,7 +35539,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.567104673236159</v>
+        <v>1.493261737841735</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.005901953690815</v>
@@ -35826,7 +35628,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.556021376706509</v>
+        <v>1.482150562875781</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.874287956660863</v>
@@ -35915,7 +35717,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.543895115794671</v>
+        <v>1.475220281567201</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.757431753920602</v>
@@ -36004,7 +35806,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.541034368262751</v>
+        <v>1.483603643488099</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.555099537345135</v>
@@ -36093,7 +35895,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.546783912679423</v>
+        <v>1.501718365228726</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.048023926055864</v>
@@ -36182,7 +35984,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.572027819084458</v>
+        <v>1.525004882425471</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.939609571727731</v>
@@ -36271,7 +36073,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.565077532869403</v>
+        <v>1.521552968687301</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.911483043978174</v>
@@ -36360,7 +36162,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.562489548470994</v>
+        <v>1.52187763570321</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.852853786876915</v>
@@ -36449,7 +36251,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.559311172736413</v>
+        <v>1.515087595657793</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.802426185868159</v>
@@ -36538,7 +36340,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.567021847630658</v>
+        <v>1.518825555521689</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.955113813575793</v>
@@ -36627,7 +36429,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.566954147368857</v>
+        <v>1.522131761759927</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.874348726724434</v>
@@ -36716,7 +36518,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.580535227958624</v>
+        <v>1.526507830608834</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.946581140170851</v>
@@ -36805,7 +36607,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.610007002482505</v>
+        <v>1.543070517461705</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.996195145925907</v>
@@ -36894,7 +36696,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.620859793520901</v>
+        <v>1.547683204264882</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.602752505135061</v>
@@ -36983,7 +36785,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.633238439822244</v>
+        <v>1.555484098295253</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.724171103934533</v>
@@ -37072,7 +36874,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.63593827896844</v>
+        <v>1.559172504589861</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.847015505877406</v>
@@ -37161,7 +36963,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.643315167688536</v>
+        <v>1.571567003447163</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.752832570191728</v>
@@ -37250,7 +37052,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.662394743872128</v>
+        <v>1.588922115653258</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.732233962208097</v>
@@ -37339,7 +37141,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.671770790192747</v>
+        <v>1.599103792593986</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.020617209117857</v>
@@ -37428,7 +37230,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.670557910366729</v>
+        <v>1.589388674973717</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.758397563188537</v>
@@ -37517,7 +37319,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.670133814092543</v>
+        <v>1.593231264283505</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.726017132216015</v>
@@ -37606,7 +37408,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.67385192121693</v>
+        <v>1.598802640119676</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.953194570346197</v>
@@ -37695,7 +37497,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.663047830837121</v>
+        <v>1.590700135978761</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.873121675905614</v>
@@ -37784,7 +37586,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.662985246761751</v>
+        <v>1.59412347385965</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.794368121598299</v>
@@ -37873,7 +37675,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.632730281618177</v>
+        <v>1.567072696726444</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.894198888638564</v>
@@ -37962,7 +37764,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.609495102313135</v>
+        <v>1.545615946859782</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.033224493138686</v>
@@ -38051,7 +37853,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.600975917876248</v>
+        <v>1.545024438932767</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.811855473170963</v>
@@ -38140,7 +37942,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.603449083365245</v>
+        <v>1.54745992460127</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.790445651928486</v>
@@ -38229,7 +38031,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.597982609930717</v>
+        <v>1.53162882989973</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.50348914489973</v>
@@ -38318,7 +38120,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.601803716259902</v>
+        <v>1.535686664173778</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.800282158660985</v>
@@ -38407,7 +38209,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.602994612230933</v>
+        <v>1.536540316116858</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.171280608802392</v>
@@ -38496,7 +38298,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.599306694084513</v>
+        <v>1.531468604510116</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.952424892613526</v>
@@ -38585,7 +38387,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.588906552084273</v>
+        <v>1.518064335165309</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.192765457194115</v>
@@ -38674,7 +38476,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.58347482657523</v>
+        <v>1.511269513729899</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.245353422645715</v>
@@ -38763,7 +38565,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.576493539325788</v>
+        <v>1.504181314356221</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.125851794789451</v>
@@ -38852,7 +38654,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.56206226566641</v>
+        <v>1.488374965593586</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.217017673033022</v>
@@ -38941,7 +38743,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.558863063422831</v>
+        <v>1.483976767384512</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.798238747895278</v>
@@ -39030,7 +38832,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.578735598994356</v>
+        <v>1.502461121547706</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.293726486443926</v>
@@ -39119,7 +38921,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.566970878768611</v>
+        <v>1.48625082278976</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.759151649932448</v>
@@ -39208,7 +39010,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.576448259164309</v>
+        <v>1.495425321966043</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.017754090757334</v>
@@ -39297,7 +39099,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.58327629615669</v>
+        <v>1.515169528900354</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.229055859661045</v>
@@ -39386,7 +39188,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.58324149126259</v>
+        <v>1.520715118029035</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.975018719874539</v>
@@ -39475,7 +39277,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.585172659489091</v>
+        <v>1.52528280304935</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.131736875072385</v>
@@ -39564,7 +39366,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.590314474558518</v>
+        <v>1.549708492581213</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.025008279944103</v>
@@ -39653,7 +39455,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.608199461069618</v>
+        <v>1.569318213568965</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.714789164915739</v>
@@ -39742,7 +39544,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.610448844783067</v>
+        <v>1.58294047695454</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.951716999255219</v>
@@ -39831,7 +39633,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.615998062800545</v>
+        <v>1.590492044109373</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.923915190316809</v>
@@ -39920,7 +39722,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.631172164971571</v>
+        <v>1.6158785625268</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.044761122234086</v>
@@ -40009,7 +39811,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.649807569005552</v>
+        <v>1.63347786790133</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.068677127091111</v>
@@ -40098,7 +39900,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.657755929190508</v>
+        <v>1.652179763504715</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.375935851071278</v>
@@ -40187,7 +39989,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.65929050236354</v>
+        <v>1.654727102930486</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.890395672778836</v>
@@ -40276,7 +40078,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.668437814515479</v>
+        <v>1.66134165943104</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.402617125753363</v>
@@ -40365,7 +40167,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.647481609588386</v>
+        <v>1.643055429457664</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.247820370172895</v>
@@ -40454,7 +40256,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.65850779444199</v>
+        <v>1.652375710802821</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.764198006225817</v>
@@ -40543,7 +40345,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.657620604470663</v>
+        <v>1.658863040335722</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.803682621127767</v>
@@ -40829,7 +40631,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.481847057166624</v>
+        <v>1.417802319806078</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.299724972491305</v>
@@ -40918,7 +40720,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.527862623989773</v>
+        <v>1.454338815478868</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.494225821877164</v>
@@ -41007,7 +40809,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.504290697910339</v>
+        <v>1.435147489241829</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.451309388893128</v>
@@ -41096,7 +40898,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.529553241631011</v>
+        <v>1.456217571281007</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.697662756769081</v>
@@ -41185,7 +40987,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.525070347164992</v>
+        <v>1.45407465239147</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.659047376573791</v>
@@ -41274,7 +41076,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.54038556808916</v>
+        <v>1.470391739128443</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.613791636841542</v>
@@ -41363,7 +41165,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.527646733470287</v>
+        <v>1.464894392101668</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.590747138425757</v>
@@ -41452,7 +41254,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.542589949272665</v>
+        <v>1.469778084551207</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.529301762275121</v>
@@ -41541,7 +41343,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.547998959602366</v>
+        <v>1.472291702522173</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.598462143104312</v>
@@ -41630,7 +41432,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.545049217477129</v>
+        <v>1.466720736351456</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.627756703301708</v>
@@ -41719,7 +41521,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.535799001956601</v>
+        <v>1.459971934257545</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.654734062299537</v>
@@ -41808,7 +41610,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.518671670722981</v>
+        <v>1.453264647792216</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.660691365280112</v>
@@ -41897,7 +41699,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.534075698374039</v>
+        <v>1.46381559587152</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.56983867946</v>
@@ -41986,7 +41788,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.531378167658637</v>
+        <v>1.459064312343326</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.458010776941904</v>
@@ -42075,7 +41877,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.539861172432754</v>
+        <v>1.464238632832884</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.513555177777891</v>
@@ -42164,7 +41966,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.534727713338787</v>
+        <v>1.463489779853248</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.584269587058289</v>
@@ -42253,7 +42055,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.528927354491437</v>
+        <v>1.458022022377526</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.530073519422857</v>
@@ -42342,7 +42144,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.552165223252962</v>
+        <v>1.476287179578613</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.652664864223633</v>
@@ -42431,7 +42233,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.524950970643026</v>
+        <v>1.458818765459868</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.679445337477778</v>
@@ -42520,7 +42322,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.530460949311033</v>
+        <v>1.45437812474664</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.306394177909642</v>
@@ -42609,7 +42411,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.513637451650486</v>
+        <v>1.442834604838316</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.506789518392742</v>
@@ -42698,7 +42500,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.50693853196994</v>
+        <v>1.441326146307864</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.555731396070464</v>
@@ -42787,7 +42589,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.498188848065278</v>
+        <v>1.431294904362829</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.337767084038976</v>
@@ -42876,7 +42678,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.491066179262203</v>
+        <v>1.426070122383466</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.278614949918317</v>
@@ -42965,7 +42767,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.492576544523863</v>
+        <v>1.433940914320627</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.245560559277667</v>
@@ -43054,7 +42856,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.502388664700728</v>
+        <v>1.448703891127829</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.372578665434049</v>
@@ -43143,7 +42945,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.529958800506164</v>
+        <v>1.472847131617095</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.363201515694835</v>
@@ -43232,7 +43034,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.506037078197337</v>
+        <v>1.456842977014829</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.323757337285293</v>
@@ -43321,7 +43123,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.508328409312919</v>
+        <v>1.464666564179716</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.369619752942741</v>
@@ -43410,7 +43212,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.511747496442872</v>
+        <v>1.466509724046104</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.430750421228674</v>
@@ -43499,7 +43301,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.516212933094861</v>
+        <v>1.467836095524025</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.421884386078451</v>
@@ -43588,7 +43390,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.520751452236758</v>
+        <v>1.474329980337743</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.544935272886988</v>
@@ -43677,7 +43479,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.540610238589396</v>
+        <v>1.48921534590243</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.332964691218625</v>
@@ -43766,7 +43568,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.548096837855031</v>
+        <v>1.490220253087727</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.302938715124113</v>
@@ -43855,7 +43657,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.571389905171839</v>
+        <v>1.512068997665074</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.218868661404512</v>
@@ -43944,7 +43746,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.57548237647288</v>
+        <v>1.513111109110275</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.483384390212978</v>
@@ -44033,7 +43835,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.583734015931032</v>
+        <v>1.524597760423785</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.545259758954322</v>
@@ -44122,7 +43924,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.597710645880805</v>
+        <v>1.543481972903762</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.438813895640746</v>
@@ -44211,7 +44013,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.626149467671674</v>
+        <v>1.559689669512982</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.585655739723135</v>
@@ -44300,7 +44102,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.627168328143129</v>
+        <v>1.560530653784296</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.535212372269313</v>
@@ -44389,7 +44191,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.623183945804539</v>
+        <v>1.553790062716421</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.539434823896503</v>
@@ -44478,7 +44280,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.61242096338251</v>
+        <v>1.545142309003705</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.529797087628199</v>
@@ -44567,7 +44369,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.651782369079551</v>
+        <v>1.580093805077104</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.502646114029502</v>
@@ -44656,7 +44458,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.625107879239331</v>
+        <v>1.561130589170421</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.453474008632595</v>
@@ -44745,7 +44547,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.615617539053387</v>
+        <v>1.558635219537171</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.48011575669008</v>
@@ -44834,7 +44636,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.571814925876026</v>
+        <v>1.525348903678571</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.614693014649553</v>
@@ -44923,7 +44725,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.566432992187973</v>
+        <v>1.513363985567521</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.492200881605435</v>
@@ -45012,7 +44814,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.555867743256491</v>
+        <v>1.500861773013562</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.4559044728843</v>
@@ -45101,7 +44903,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551735187005117</v>
+        <v>1.496741539975477</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.622975526093362</v>
@@ -45190,7 +44992,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.540496234971091</v>
+        <v>1.477605872822738</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.150004551722949</v>
@@ -45279,7 +45081,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.563401671441918</v>
+        <v>1.488377387624451</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.456257832353472</v>
@@ -45368,7 +45170,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.542207952954871</v>
+        <v>1.475872344406236</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.475265910882083</v>
@@ -45457,7 +45259,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.53289103092146</v>
+        <v>1.466579521040821</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.458624160043369</v>
@@ -45546,7 +45348,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.524307956389071</v>
+        <v>1.463217652582676</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.618206831565775</v>
@@ -45635,7 +45437,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.514494382046592</v>
+        <v>1.459006915423161</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.479151712483928</v>
@@ -45724,7 +45526,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.517887376933287</v>
+        <v>1.459648128783315</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.392077289555026</v>
@@ -45813,7 +45615,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.519153747193118</v>
+        <v>1.460444670364891</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.516358627701073</v>
@@ -45902,7 +45704,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.524089894338475</v>
+        <v>1.463356763584838</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.410951994075129</v>
@@ -45991,7 +45793,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.549979859861841</v>
+        <v>1.485588507064192</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.449381352736579</v>
@@ -46080,7 +45882,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.558062367820402</v>
+        <v>1.482797389692591</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.19158414260464</v>
@@ -46169,7 +45971,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.583466283358973</v>
+        <v>1.50437199963763</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.566637156457722</v>
@@ -46258,7 +46060,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.585272441236231</v>
+        <v>1.510451102269522</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.490907776221882</v>
@@ -46347,7 +46149,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.591091198605286</v>
+        <v>1.521302419613682</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.415263442946189</v>
@@ -46436,7 +46238,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.573263256601084</v>
+        <v>1.512218379872949</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.553362519475357</v>
@@ -46525,7 +46327,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.559284674440276</v>
+        <v>1.516515621103564</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.423601298179864</v>
@@ -46614,7 +46416,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.572411483565077</v>
+        <v>1.537255655940435</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.554332551699014</v>
@@ -46703,7 +46505,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.566598303314111</v>
+        <v>1.536912324099817</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.675305434468022</v>
@@ -46792,7 +46594,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.573759717979086</v>
+        <v>1.54359231928036</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.706990699656949</v>
@@ -46881,7 +46683,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.577332779588658</v>
+        <v>1.546612230126988</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.636850507130432</v>
@@ -46970,7 +46772,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.586207152350055</v>
+        <v>1.55762425514319</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.502415645868649</v>
@@ -47059,7 +46861,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.579008500368818</v>
+        <v>1.559139606033119</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.610445336318612</v>
@@ -47148,7 +46950,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.574653484953299</v>
+        <v>1.556925642125608</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.509478787106199</v>
@@ -47237,7 +47039,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.56450765176362</v>
+        <v>1.546115379622964</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.47802796145709</v>
@@ -47326,7 +47128,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.559881929950918</v>
+        <v>1.537656554743934</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.556494788732678</v>
@@ -47415,7 +47217,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.568023261565978</v>
+        <v>1.54821316673318</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.789980423254519</v>
@@ -47504,7 +47306,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.572518992005224</v>
+        <v>1.552951155596775</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.497905330522679</v>
